--- a/biology/Neurosciences/Larry_Abbott/Larry_Abbott.xlsx
+++ b/biology/Neurosciences/Larry_Abbott/Larry_Abbott.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Larry Abbott (né en 1950) est un neuroscientifique américain, titulaire de la chaire William Bloor de professeur de neuroscience théorique à l'Université Columbia, où il a aidé à créer le Centre de neuroscience théorique. Il est largement considéré comme l'un des leaders des neurosciences computationnelles, et il est co-auteur du premier manuel complet sur la neuroscience théorique.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est à l'origine un physicien spécialisé en théorie des particules à l'Université Brandeis, mais il rejoint le laboratoire d'Eve Marder en 1998 et y a passé les dix années suivantes à l'étude des réseaux de neurones. Avec Marder, il a contribué à inventer la technique du clamp dynamique[1].
-En 2004, il part de Brandeis pour Columbia[2]. En 2016, il participe au International Brain Laboratory.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est à l'origine un physicien spécialisé en théorie des particules à l'Université Brandeis, mais il rejoint le laboratoire d'Eve Marder en 1998 et y a passé les dix années suivantes à l'étude des réseaux de neurones. Avec Marder, il a contribué à inventer la technique du clamp dynamique.
+En 2004, il part de Brandeis pour Columbia. En 2016, il participe au International Brain Laboratory.
 </t>
         </is>
       </c>
@@ -543,12 +557,14 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2004 National Institutes of Health Director's Pioneer Award (en)[3]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2004 National Institutes of Health Director's Pioneer Award (en)
 2013 Prix de neuroscience mathématique, avec Haim Sompolinsky (en)
-2014 Prix Swartz[4]
-2014 membre de l'Académie nationale des sciences[5]</t>
+2014 Prix Swartz
+2014 membre de l'Académie nationale des sciences</t>
         </is>
       </c>
     </row>
